--- a/PCB/EDU-NXP/docs/CIAA_KIDS Pinouts (Rev 0.0).xlsx
+++ b/PCB/EDU-NXP/docs/CIAA_KIDS Pinouts (Rev 0.0).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="799">
   <si>
     <t>CIAA_xxxx</t>
   </si>
@@ -486,85 +486,43 @@
     <t>P1_6</t>
   </si>
   <si>
-    <t>7SEG_a</t>
-  </si>
-  <si>
     <t>―</t>
   </si>
   <si>
-    <t>DOUT</t>
-  </si>
-  <si>
     <t>P1_7</t>
   </si>
   <si>
-    <t>7SEG_b</t>
-  </si>
-  <si>
     <t>―</t>
   </si>
   <si>
-    <t>DOUT</t>
-  </si>
-  <si>
     <t>P1_8</t>
   </si>
   <si>
-    <t>7SEG_c</t>
-  </si>
-  <si>
     <t>―</t>
   </si>
   <si>
-    <t>DOUT</t>
-  </si>
-  <si>
     <t>P1_9</t>
   </si>
   <si>
-    <t>7SEG_d</t>
-  </si>
-  <si>
     <t>―</t>
   </si>
   <si>
-    <t>DOUT</t>
-  </si>
-  <si>
     <t>P1_10</t>
   </si>
   <si>
-    <t>7SEG_e</t>
-  </si>
-  <si>
     <t>―</t>
   </si>
   <si>
-    <t>DOUT</t>
-  </si>
-  <si>
     <t>P5_3</t>
   </si>
   <si>
-    <t>7SEG_f</t>
-  </si>
-  <si>
     <t>―</t>
   </si>
   <si>
-    <t>DOUT</t>
-  </si>
-  <si>
     <t>P1_11</t>
   </si>
   <si>
-    <t>7SEG_g</t>
-  </si>
-  <si>
     <t>A5</t>
-  </si>
-  <si>
-    <t>DOUT</t>
   </si>
   <si>
     <t>P1_12</t>
@@ -3616,6 +3574,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3626,157 +3590,11 @@
     <xf numFmtId="0" fontId="39" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD8D8D8"/>
-          <bgColor rgb="FFD8D8D8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD8D8D8"/>
-          <bgColor rgb="FFD8D8D8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD8D8D8"/>
-          <bgColor rgb="FFD8D8D8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD8D8D8"/>
-          <bgColor rgb="FFD8D8D8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD8D8D8"/>
-          <bgColor rgb="FFD8D8D8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD8D8D8"/>
-          <bgColor rgb="FFD8D8D8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD8D8D8"/>
-          <bgColor rgb="FFD8D8D8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD8D8D8"/>
-          <bgColor rgb="FFD8D8D8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD8D8D8"/>
-          <bgColor rgb="FFD8D8D8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD8D8D8"/>
-          <bgColor rgb="FFD8D8D8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4301,8 +4119,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="O112" sqref="O112"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4353,21 +4171,21 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="65" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
     </row>
     <row r="4" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -4409,7 +4227,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="9"/>
       <c r="C5" s="54" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>14</v>
@@ -4435,7 +4253,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="13"/>
       <c r="C6" s="54" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>17</v>
@@ -4463,7 +4281,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="13"/>
       <c r="C7" s="54" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>21</v>
@@ -4527,7 +4345,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="13"/>
       <c r="C10" s="54" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>28</v>
@@ -4555,7 +4373,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="13"/>
       <c r="C11" s="54" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>33</v>
@@ -4581,7 +4399,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="13"/>
       <c r="C12" s="54" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>36</v>
@@ -4607,7 +4425,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="13"/>
       <c r="C13" s="54" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>39</v>
@@ -4633,7 +4451,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="13"/>
       <c r="C14" s="54" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>42</v>
@@ -4659,7 +4477,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="13"/>
       <c r="C15" s="54" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>45</v>
@@ -4755,7 +4573,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="13"/>
       <c r="C19" s="54" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>56</v>
@@ -5155,7 +4973,7 @@
       <c r="A36" s="1"/>
       <c r="B36" s="13"/>
       <c r="C36" s="55" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>102</v>
@@ -5181,7 +4999,7 @@
       <c r="A37" s="1"/>
       <c r="B37" s="13"/>
       <c r="C37" s="54" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>105</v>
@@ -5207,7 +5025,7 @@
       <c r="A38" s="1"/>
       <c r="B38" s="13"/>
       <c r="C38" s="55" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>108</v>
@@ -5231,7 +5049,7 @@
       <c r="A39" s="1"/>
       <c r="B39" s="13"/>
       <c r="C39" s="54" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>111</v>
@@ -5443,7 +5261,7 @@
       <c r="A48" s="1"/>
       <c r="B48" s="13"/>
       <c r="C48" s="55" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>138</v>
@@ -5511,7 +5329,7 @@
       <c r="A51" s="1"/>
       <c r="B51" s="13"/>
       <c r="C51" s="55" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>144</v>
@@ -5535,7 +5353,7 @@
       <c r="A52" s="1"/>
       <c r="B52" s="13"/>
       <c r="C52" s="54" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>147</v>
@@ -5581,22 +5399,18 @@
     </row>
     <row r="54" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>156</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="E54" s="14"/>
       <c r="F54" s="15">
         <v>50</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
@@ -5605,16 +5419,12 @@
     </row>
     <row r="55" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="13" t="s">
-        <v>158</v>
-      </c>
+      <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>160</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="E55" s="14"/>
       <c r="F55" s="15">
         <v>51</v>
       </c>
@@ -5622,7 +5432,7 @@
         <v>39</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
@@ -5631,16 +5441,12 @@
     </row>
     <row r="56" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="13" t="s">
-        <v>162</v>
-      </c>
+      <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>164</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E56" s="14"/>
       <c r="F56" s="15">
         <v>52</v>
       </c>
@@ -5648,7 +5454,7 @@
         <v>40</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
@@ -5657,16 +5463,12 @@
     </row>
     <row r="57" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="13" t="s">
-        <v>166</v>
-      </c>
+      <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>168</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="E57" s="14"/>
       <c r="F57" s="15">
         <v>53</v>
       </c>
@@ -5674,7 +5476,7 @@
         <v>41</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
@@ -5683,16 +5485,12 @@
     </row>
     <row r="58" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="13" t="s">
-        <v>170</v>
-      </c>
+      <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E58" s="14"/>
       <c r="F58" s="15">
         <v>54</v>
       </c>
@@ -5700,7 +5498,7 @@
         <v>42</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
@@ -5709,16 +5507,12 @@
     </row>
     <row r="59" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="13" t="s">
-        <v>174</v>
-      </c>
+      <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>176</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E59" s="14"/>
       <c r="F59" s="15">
         <v>55</v>
       </c>
@@ -5726,7 +5520,7 @@
         <v>43</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
@@ -5735,16 +5529,12 @@
     </row>
     <row r="60" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="13" t="s">
-        <v>178</v>
-      </c>
+      <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="E60" s="14"/>
       <c r="F60" s="15">
         <v>56</v>
       </c>
@@ -5752,7 +5542,7 @@
         <v>44</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
@@ -5764,7 +5554,7 @@
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E61" s="14"/>
       <c r="F61" s="15">
@@ -5774,7 +5564,7 @@
         <v>45</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
@@ -5786,7 +5576,7 @@
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="E62" s="14"/>
       <c r="F62" s="15">
@@ -5796,7 +5586,7 @@
         <v>46</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
@@ -5806,11 +5596,11 @@
     <row r="63" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="13" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="13" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E63" s="14"/>
       <c r="F63" s="15">
@@ -5820,7 +5610,7 @@
         <v>47</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
@@ -5832,7 +5622,7 @@
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="E64" s="14"/>
       <c r="F64" s="15">
@@ -5842,7 +5632,7 @@
         <v>48</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
@@ -5854,7 +5644,7 @@
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E65" s="14"/>
       <c r="F65" s="15">
@@ -5864,7 +5654,7 @@
         <v>49</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
@@ -5875,13 +5665,13 @@
       <c r="A66" s="1"/>
       <c r="B66" s="13"/>
       <c r="C66" s="55" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="F66" s="15">
         <v>62</v>
@@ -5890,7 +5680,7 @@
         <v>50</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
@@ -5902,7 +5692,7 @@
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E67" s="14"/>
       <c r="F67" s="15">
@@ -5912,7 +5702,7 @@
         <v>51</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
@@ -5923,13 +5713,13 @@
       <c r="A68" s="1"/>
       <c r="B68" s="13"/>
       <c r="C68" s="55" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F68" s="15">
         <v>64</v>
@@ -5938,7 +5728,7 @@
         <v>52</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
@@ -5950,7 +5740,7 @@
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="15">
@@ -5960,7 +5750,7 @@
         <v>53</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="I69" s="13"/>
       <c r="J69" s="13"/>
@@ -5971,13 +5761,13 @@
       <c r="A70" s="1"/>
       <c r="B70" s="13"/>
       <c r="C70" s="55" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F70" s="15">
         <v>66</v>
@@ -5986,7 +5776,7 @@
         <v>54</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
@@ -5997,13 +5787,13 @@
       <c r="A71" s="1"/>
       <c r="B71" s="13"/>
       <c r="C71" s="55" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="F71" s="15">
         <v>67</v>
@@ -6012,7 +5802,7 @@
         <v>55</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>
@@ -6023,13 +5813,13 @@
       <c r="A72" s="1"/>
       <c r="B72" s="13"/>
       <c r="C72" s="55" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F72" s="15">
         <v>68</v>
@@ -6038,7 +5828,7 @@
         <v>56</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="I72" s="13"/>
       <c r="J72" s="13"/>
@@ -6048,21 +5838,21 @@
     <row r="73" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="13" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="13" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F73" s="15">
         <v>69</v>
       </c>
       <c r="G73" s="13"/>
       <c r="H73" s="13" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="I73" s="13"/>
       <c r="J73" s="13"/>
@@ -6073,20 +5863,20 @@
       <c r="A74" s="1"/>
       <c r="B74" s="13"/>
       <c r="C74" s="55" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="F74" s="15">
         <v>70</v>
       </c>
       <c r="G74" s="13"/>
       <c r="H74" s="13" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
@@ -6096,11 +5886,11 @@
     <row r="75" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="13" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="15">
@@ -6108,7 +5898,7 @@
       </c>
       <c r="G75" s="13"/>
       <c r="H75" s="13" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
@@ -6118,21 +5908,21 @@
     <row r="76" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="13" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="13" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="F76" s="15">
         <v>72</v>
       </c>
       <c r="G76" s="13"/>
       <c r="H76" s="13" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
@@ -6144,7 +5934,7 @@
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E77" s="20"/>
       <c r="F77" s="15">
@@ -6154,7 +5944,7 @@
         <v>57</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="I77" s="13"/>
       <c r="J77" s="13"/>
@@ -6165,13 +5955,13 @@
       <c r="A78" s="1"/>
       <c r="B78" s="13"/>
       <c r="C78" s="54" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="F78" s="15">
         <v>74</v>
@@ -6180,7 +5970,7 @@
         <v>58</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="I78" s="13"/>
       <c r="J78" s="13"/>
@@ -6190,14 +5980,14 @@
     <row r="79" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="21" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="F79" s="15">
         <v>75</v>
@@ -6206,7 +5996,7 @@
         <v>59</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="I79" s="13"/>
       <c r="J79" s="13"/>
@@ -6216,11 +6006,11 @@
     <row r="80" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="13" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="13" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="E80" s="14"/>
       <c r="F80" s="15">
@@ -6230,7 +6020,7 @@
         <v>60</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="I80" s="13"/>
       <c r="J80" s="13"/>
@@ -6240,11 +6030,11 @@
     <row r="81" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="13" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="E81" s="14"/>
       <c r="F81" s="15">
@@ -6254,7 +6044,7 @@
         <v>61</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="I81" s="13"/>
       <c r="J81" s="13"/>
@@ -6264,14 +6054,14 @@
     <row r="82" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="13" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="13" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="F82" s="15">
         <v>78</v>
@@ -6280,7 +6070,7 @@
         <v>62</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="I82" s="13"/>
       <c r="J82" s="13"/>
@@ -6290,14 +6080,14 @@
     <row r="83" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="13" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="13" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="F83" s="15">
         <v>79</v>
@@ -6306,7 +6096,7 @@
         <v>63</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I83" s="13"/>
       <c r="J83" s="13"/>
@@ -6318,7 +6108,7 @@
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="15">
@@ -6328,7 +6118,7 @@
         <v>64</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
@@ -6338,18 +6128,18 @@
     <row r="85" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="21" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C85" s="13"/>
       <c r="E85" s="22" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="F85" s="15">
         <v>81</v>
       </c>
       <c r="G85" s="13"/>
       <c r="H85" s="13" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="I85" s="13"/>
       <c r="J85" s="13"/>
@@ -6362,7 +6152,7 @@
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
       <c r="D86" s="22" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="E86" s="22"/>
       <c r="F86" s="15">
@@ -6370,7 +6160,7 @@
       </c>
       <c r="G86" s="13"/>
       <c r="H86" s="13" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="I86" s="13"/>
       <c r="J86" s="13"/>
@@ -6380,21 +6170,21 @@
     <row r="87" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="21" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C87" s="21"/>
       <c r="D87" s="22" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="F87" s="15">
         <v>83</v>
       </c>
       <c r="G87" s="13"/>
       <c r="H87" s="13" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="I87" s="13"/>
       <c r="J87" s="13"/>
@@ -6404,11 +6194,11 @@
     <row r="88" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="21" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="22" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E88" s="22" t="s">
         <v>41</v>
@@ -6418,7 +6208,7 @@
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="13" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="I88" s="13"/>
       <c r="J88" s="13"/>
@@ -6433,16 +6223,16 @@
       </c>
       <c r="G89" s="13"/>
       <c r="H89" s="13" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="I89" s="17" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="J89" s="17" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="K89" s="17" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="L89" s="13"/>
       <c r="N89" s="62"/>
@@ -6453,14 +6243,14 @@
       <c r="A90" s="1"/>
       <c r="C90" s="21"/>
       <c r="D90" s="22" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F90" s="15">
         <v>86</v>
       </c>
       <c r="G90" s="13"/>
       <c r="H90" s="13" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="I90" s="13"/>
       <c r="J90" s="13"/>
@@ -6471,23 +6261,23 @@
     <row r="91" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="C91" s="55" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="E91" s="70" t="s">
-        <v>270</v>
+        <v>254</v>
+      </c>
+      <c r="E91" s="66" t="s">
+        <v>256</v>
       </c>
       <c r="F91" s="15">
         <v>87</v>
       </c>
       <c r="G91" s="13"/>
       <c r="H91" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="I91" s="69" t="s">
-        <v>270</v>
+        <v>255</v>
+      </c>
+      <c r="I91" s="65" t="s">
+        <v>256</v>
       </c>
       <c r="J91" s="13"/>
       <c r="K91" s="13"/>
@@ -6497,23 +6287,23 @@
     <row r="92" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="C92" s="55" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="E92" s="70" t="s">
-        <v>274</v>
+        <v>258</v>
+      </c>
+      <c r="E92" s="66" t="s">
+        <v>260</v>
       </c>
       <c r="F92" s="15">
         <v>88</v>
       </c>
       <c r="G92" s="13"/>
       <c r="H92" s="13" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="I92" s="23" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="J92" s="13"/>
       <c r="K92" s="13"/>
@@ -6523,19 +6313,19 @@
     <row r="93" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="21" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="C93" s="21"/>
       <c r="D93" s="22"/>
       <c r="E93" s="22" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="F93" s="24">
         <v>89</v>
       </c>
       <c r="G93" s="21"/>
       <c r="H93" s="21" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="I93" s="21"/>
       <c r="J93" s="21"/>
@@ -6545,19 +6335,19 @@
     <row r="94" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="21" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="22"/>
       <c r="E94" s="22" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="F94" s="24">
         <v>90</v>
       </c>
       <c r="G94" s="21"/>
       <c r="H94" s="21" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="I94" s="21"/>
       <c r="J94" s="21"/>
@@ -6568,24 +6358,24 @@
       <c r="A95" s="1"/>
       <c r="B95" s="21"/>
       <c r="C95" s="54" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D95" s="22"/>
       <c r="E95" s="22" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="F95" s="24">
         <v>91</v>
       </c>
       <c r="G95" s="21"/>
       <c r="H95" s="21" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="I95" s="25" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="J95" s="25" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="K95" s="21"/>
       <c r="L95" s="21"/>
@@ -6594,18 +6384,18 @@
       <c r="A96" s="1"/>
       <c r="B96" s="21"/>
       <c r="C96" s="55" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D96" s="22"/>
       <c r="E96" s="22" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F96" s="24">
         <v>92</v>
       </c>
       <c r="G96" s="21"/>
       <c r="H96" s="21" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="I96" s="21"/>
       <c r="J96" s="21"/>
@@ -6616,18 +6406,18 @@
       <c r="A97" s="1"/>
       <c r="B97" s="21"/>
       <c r="C97" s="55" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D97" s="22"/>
       <c r="E97" s="22" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="F97" s="24">
         <v>93</v>
       </c>
       <c r="G97" s="21"/>
       <c r="H97" s="21" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="I97" s="21"/>
       <c r="J97" s="21"/>
@@ -6638,7 +6428,7 @@
     <row r="98" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="21" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C98" s="21"/>
       <c r="D98" s="22"/>
@@ -6648,7 +6438,7 @@
       </c>
       <c r="G98" s="21"/>
       <c r="H98" s="21" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="I98" s="21"/>
       <c r="J98" s="21"/>
@@ -6659,20 +6449,20 @@
     <row r="99" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="C99" s="54" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="F99" s="24">
         <v>95</v>
       </c>
       <c r="G99" s="21"/>
       <c r="H99" s="21" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="I99" s="21"/>
       <c r="J99" s="58"/>
@@ -6684,7 +6474,7 @@
       <c r="A100" s="1"/>
       <c r="C100" s="21"/>
       <c r="D100" s="22" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="E100" s="21"/>
       <c r="F100" s="24">
@@ -6692,7 +6482,7 @@
       </c>
       <c r="G100" s="21"/>
       <c r="H100" s="21" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="I100" s="21"/>
       <c r="J100" s="58"/>
@@ -6705,7 +6495,7 @@
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
       <c r="D101" s="22" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="E101" s="21"/>
       <c r="F101" s="24">
@@ -6713,7 +6503,7 @@
       </c>
       <c r="G101" s="21"/>
       <c r="H101" s="21" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="I101" s="21"/>
       <c r="J101" s="58"/>
@@ -6724,19 +6514,19 @@
     <row r="102" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="21" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C102" s="21"/>
       <c r="D102" s="22"/>
       <c r="E102" s="22" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="F102" s="24">
         <v>98</v>
       </c>
       <c r="G102" s="21"/>
       <c r="H102" s="21" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="I102" s="21"/>
       <c r="J102" s="21"/>
@@ -6763,21 +6553,21 @@
     <row r="104" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="21" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="C104" s="21"/>
       <c r="D104" s="22" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="F104" s="24">
         <v>100</v>
       </c>
       <c r="G104" s="21"/>
       <c r="H104" s="63" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="I104" s="63"/>
       <c r="J104" s="63"/>
@@ -6788,21 +6578,21 @@
     <row r="105" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="21" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C105" s="21"/>
       <c r="D105" s="22" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F105" s="24">
         <v>101</v>
       </c>
       <c r="G105" s="21"/>
       <c r="H105" s="63" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="I105" s="63"/>
       <c r="J105" s="63"/>
@@ -6813,21 +6603,21 @@
     <row r="106" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="21" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C106" s="21"/>
       <c r="D106" s="22" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E106" s="22" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="F106" s="24">
         <v>102</v>
       </c>
       <c r="G106" s="21"/>
       <c r="H106" s="63" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="I106" s="63"/>
       <c r="J106" s="63"/>
@@ -6838,21 +6628,21 @@
     <row r="107" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="21" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C107" s="21"/>
       <c r="D107" s="22" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="E107" s="22" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="F107" s="24">
         <v>103</v>
       </c>
       <c r="G107" s="21"/>
       <c r="H107" s="63" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="I107" s="63"/>
       <c r="J107" s="63"/>
@@ -6863,21 +6653,21 @@
     <row r="108" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="21" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C108" s="21"/>
       <c r="D108" s="22" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="F108" s="24">
         <v>104</v>
       </c>
       <c r="G108" s="21"/>
       <c r="H108" s="63" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="I108" s="63"/>
       <c r="J108" s="63"/>
@@ -6888,21 +6678,21 @@
     <row r="109" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="21" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C109" s="21"/>
       <c r="D109" s="22" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="E109" s="22" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="F109" s="24">
         <v>105</v>
       </c>
       <c r="G109" s="21"/>
       <c r="H109" s="63" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="I109" s="63"/>
       <c r="J109" s="63"/>
@@ -6913,7 +6703,7 @@
     <row r="110" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="21" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C110" s="21"/>
       <c r="D110" s="22"/>
@@ -6925,7 +6715,7 @@
       </c>
       <c r="G110" s="21"/>
       <c r="H110" s="21" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="I110" s="21"/>
       <c r="J110" s="21"/>
@@ -6943,7 +6733,7 @@
       </c>
       <c r="G111" s="21"/>
       <c r="H111" s="21" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="I111" s="21"/>
       <c r="J111" s="21"/>
@@ -6953,7 +6743,7 @@
     <row r="112" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="21" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C112" s="21"/>
       <c r="D112" s="22"/>
@@ -6965,7 +6755,7 @@
       </c>
       <c r="G112" s="21"/>
       <c r="H112" s="21" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="I112" s="21"/>
       <c r="J112" s="21"/>
@@ -6975,7 +6765,7 @@
     <row r="113" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="21" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="22"/>
@@ -6985,7 +6775,7 @@
       </c>
       <c r="G113" s="21"/>
       <c r="H113" s="21" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="I113" s="21"/>
       <c r="J113" s="21"/>
@@ -6996,24 +6786,24 @@
       <c r="A114" s="1"/>
       <c r="B114" s="21"/>
       <c r="C114" s="54" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D114" s="22"/>
       <c r="E114" s="22" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="F114" s="24">
         <v>110</v>
       </c>
       <c r="G114" s="21"/>
       <c r="H114" s="21" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="I114" s="25" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="J114" s="25" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="K114" s="21"/>
       <c r="L114" s="21"/>
@@ -7021,7 +6811,7 @@
     <row r="115" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="21" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C115" s="21"/>
       <c r="D115" s="22"/>
@@ -7031,7 +6821,7 @@
       </c>
       <c r="G115" s="21"/>
       <c r="H115" s="21" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="I115" s="21"/>
       <c r="J115" s="21"/>
@@ -7049,7 +6839,7 @@
       </c>
       <c r="G116" s="21"/>
       <c r="H116" s="21" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="I116" s="21"/>
       <c r="J116" s="21"/>
@@ -7067,7 +6857,7 @@
       </c>
       <c r="G117" s="21"/>
       <c r="H117" s="21" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="I117" s="21"/>
       <c r="J117" s="21"/>
@@ -7078,18 +6868,18 @@
       <c r="A118" s="1"/>
       <c r="B118" s="21"/>
       <c r="C118" s="55" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D118" s="22"/>
       <c r="E118" s="22" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="F118" s="24">
         <v>114</v>
       </c>
       <c r="G118" s="21"/>
       <c r="H118" s="21" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="I118" s="21"/>
       <c r="J118" s="21"/>
@@ -7107,7 +6897,7 @@
       </c>
       <c r="G119" s="21"/>
       <c r="H119" s="21" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="I119" s="21"/>
       <c r="J119" s="21"/>
@@ -7118,18 +6908,18 @@
       <c r="A120" s="1"/>
       <c r="B120" s="21"/>
       <c r="C120" s="55" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D120" s="22"/>
       <c r="E120" s="22" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="F120" s="24">
         <v>116</v>
       </c>
       <c r="G120" s="21"/>
       <c r="H120" s="21" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="I120" s="21"/>
       <c r="J120" s="21"/>
@@ -7147,7 +6937,7 @@
       </c>
       <c r="G121" s="21"/>
       <c r="H121" s="21" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="I121" s="21"/>
       <c r="J121" s="21"/>
@@ -7165,7 +6955,7 @@
       </c>
       <c r="G122" s="21"/>
       <c r="H122" s="21" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="I122" s="21"/>
       <c r="J122" s="21"/>
@@ -7183,7 +6973,7 @@
       </c>
       <c r="G123" s="21"/>
       <c r="H123" s="21" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="I123" s="21"/>
       <c r="J123" s="21"/>
@@ -7194,18 +6984,18 @@
       <c r="A124" s="1"/>
       <c r="B124" s="21"/>
       <c r="C124" s="59" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D124" s="22"/>
       <c r="E124" s="60" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="F124" s="61">
         <v>120</v>
       </c>
       <c r="G124" s="21"/>
       <c r="H124" s="57" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="I124" s="57"/>
       <c r="J124" s="57"/>
@@ -7224,7 +7014,7 @@
       </c>
       <c r="G125" s="21"/>
       <c r="H125" s="21" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="I125" s="21"/>
       <c r="J125" s="21"/>
@@ -7242,7 +7032,7 @@
       </c>
       <c r="G126" s="21"/>
       <c r="H126" s="21" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="I126" s="21"/>
       <c r="J126" s="21"/>
@@ -7260,7 +7050,7 @@
       </c>
       <c r="G127" s="21"/>
       <c r="H127" s="21" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="I127" s="21"/>
       <c r="J127" s="21"/>
@@ -7278,7 +7068,7 @@
       </c>
       <c r="G128" s="21"/>
       <c r="H128" s="21" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="I128" s="21"/>
       <c r="J128" s="21"/>
@@ -7288,7 +7078,7 @@
     <row r="129" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="21" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="C129" s="21"/>
       <c r="D129" s="22"/>
@@ -7298,7 +7088,7 @@
       </c>
       <c r="G129" s="21"/>
       <c r="H129" s="21" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="I129" s="21"/>
       <c r="J129" s="21"/>
@@ -7308,7 +7098,7 @@
     <row r="130" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="21" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="C130" s="21"/>
       <c r="D130" s="22"/>
@@ -7318,7 +7108,7 @@
       </c>
       <c r="G130" s="21"/>
       <c r="H130" s="21" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="I130" s="21"/>
       <c r="J130" s="21"/>
@@ -7336,7 +7126,7 @@
       </c>
       <c r="G131" s="21"/>
       <c r="H131" s="21" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="I131" s="21"/>
       <c r="J131" s="21"/>
@@ -7346,21 +7136,21 @@
     <row r="132" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="21" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="D132" s="22"/>
       <c r="E132" s="22" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="F132" s="24">
         <v>128</v>
       </c>
       <c r="G132" s="21"/>
       <c r="H132" s="21" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="I132" s="21"/>
       <c r="J132" s="21"/>
@@ -7371,24 +7161,24 @@
       <c r="A133" s="1"/>
       <c r="B133" s="21"/>
       <c r="C133" s="55" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D133" s="22"/>
       <c r="E133" s="22" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="F133" s="24">
         <v>129</v>
       </c>
       <c r="G133" s="21"/>
       <c r="H133" s="21" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="I133" s="25" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="J133" s="25" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="K133" s="21"/>
       <c r="L133" s="21"/>
@@ -7397,18 +7187,18 @@
       <c r="A134" s="1"/>
       <c r="B134" s="21"/>
       <c r="C134" s="55" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D134" s="22"/>
       <c r="E134" s="22" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="F134" s="24">
         <v>130</v>
       </c>
       <c r="G134" s="21"/>
       <c r="H134" s="21" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="I134" s="21"/>
       <c r="J134" s="21"/>
@@ -7426,7 +7216,7 @@
       </c>
       <c r="G135" s="21"/>
       <c r="H135" s="21" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="I135" s="21"/>
       <c r="J135" s="21"/>
@@ -7437,18 +7227,18 @@
       <c r="A136" s="1"/>
       <c r="B136" s="21"/>
       <c r="C136" s="54" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D136" s="22"/>
       <c r="E136" s="22" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="F136" s="24">
         <v>132</v>
       </c>
       <c r="G136" s="21"/>
       <c r="H136" s="21" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="I136" s="21"/>
       <c r="J136" s="21"/>
@@ -7459,18 +7249,18 @@
       <c r="A137" s="1"/>
       <c r="B137" s="21"/>
       <c r="C137" s="54" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D137" s="22"/>
       <c r="E137" s="22" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="F137" s="24">
         <v>133</v>
       </c>
       <c r="G137" s="21"/>
       <c r="H137" s="21" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="I137" s="21"/>
       <c r="J137" s="21"/>
@@ -7481,11 +7271,11 @@
       <c r="A138" s="1"/>
       <c r="B138" s="21"/>
       <c r="C138" s="54" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D138" s="22"/>
       <c r="E138" s="22" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="F138" s="24">
         <v>134</v>
@@ -7500,7 +7290,7 @@
     <row r="139" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="21" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="C139" s="13"/>
       <c r="D139" s="22"/>
@@ -7510,7 +7300,7 @@
       </c>
       <c r="G139" s="21"/>
       <c r="H139" s="21" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="I139" s="21"/>
       <c r="J139" s="21"/>
@@ -7521,24 +7311,24 @@
       <c r="A140" s="1"/>
       <c r="B140" s="21"/>
       <c r="C140" s="55" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D140" s="22"/>
       <c r="E140" s="22" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="F140" s="24">
         <v>136</v>
       </c>
       <c r="G140" s="21"/>
       <c r="H140" s="21" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="I140" s="25" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="J140" s="25" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="K140" s="21"/>
       <c r="L140" s="21"/>
@@ -7546,7 +7336,7 @@
     <row r="141" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="21" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C141" s="13"/>
       <c r="D141" s="22"/>
@@ -7556,7 +7346,7 @@
       </c>
       <c r="G141" s="21"/>
       <c r="H141" s="21" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="I141" s="21"/>
       <c r="J141" s="21"/>
@@ -7567,21 +7357,21 @@
       <c r="A142" s="1"/>
       <c r="B142" s="21"/>
       <c r="C142" s="19" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="D142" s="22"/>
       <c r="E142" s="14" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="F142" s="24">
         <v>138</v>
       </c>
       <c r="G142" s="21"/>
       <c r="H142" s="21" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="I142" s="25" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="J142" s="21"/>
       <c r="K142" s="21"/>
@@ -7591,21 +7381,21 @@
       <c r="A143" s="1"/>
       <c r="B143" s="21"/>
       <c r="C143" s="54" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D143" s="22"/>
       <c r="E143" s="14" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="F143" s="24">
         <v>139</v>
       </c>
       <c r="G143" s="21"/>
       <c r="H143" s="21" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="I143" s="25" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="J143" s="21"/>
       <c r="K143" s="21"/>
@@ -7615,18 +7405,18 @@
       <c r="A144" s="1"/>
       <c r="B144" s="21"/>
       <c r="C144" s="55" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D144" s="22"/>
       <c r="E144" s="22" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="F144" s="24">
         <v>140</v>
       </c>
       <c r="G144" s="21"/>
       <c r="H144" s="21" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="I144" s="21"/>
       <c r="J144" s="21"/>
@@ -7636,7 +7426,7 @@
     <row r="145" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="21" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="C145" s="13"/>
       <c r="D145" s="22"/>
@@ -7646,7 +7436,7 @@
       </c>
       <c r="G145" s="21"/>
       <c r="H145" s="21" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="I145" s="21"/>
       <c r="J145" s="21"/>
@@ -7657,24 +7447,24 @@
       <c r="A146" s="1"/>
       <c r="B146" s="21"/>
       <c r="C146" s="55" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D146" s="22"/>
       <c r="E146" s="22" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="F146" s="24">
         <v>142</v>
       </c>
       <c r="G146" s="21"/>
       <c r="H146" s="21" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="I146" s="25" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="J146" s="25" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="K146" s="21"/>
       <c r="L146" s="21"/>
@@ -7683,21 +7473,21 @@
       <c r="A147" s="1"/>
       <c r="B147" s="21"/>
       <c r="C147" s="54" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D147" s="22"/>
       <c r="E147" s="14" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="F147" s="24">
         <v>143</v>
       </c>
       <c r="G147" s="21"/>
       <c r="H147" s="21" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="I147" s="25" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="J147" s="21"/>
       <c r="K147" s="21"/>
@@ -7707,24 +7497,24 @@
       <c r="A148" s="1"/>
       <c r="B148" s="21"/>
       <c r="C148" s="55" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D148" s="22"/>
       <c r="E148" s="22" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="F148" s="24">
         <v>144</v>
       </c>
       <c r="G148" s="21"/>
       <c r="H148" s="21" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="I148" s="25" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="J148" s="25" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="K148" s="21"/>
       <c r="L148" s="21"/>
@@ -7734,7 +7524,7 @@
       <c r="B149" s="26"/>
       <c r="C149" s="26"/>
       <c r="D149" s="27" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="E149" s="27"/>
       <c r="F149" s="28"/>
@@ -8311,72 +8101,72 @@
     <mergeCell ref="F3:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:L149 B5:E76 B93:E98 B107:E107 B103:E103 B77:D82 E78:E82 B83:E84 B85 C90:D92 E85 C99:D102 E99 B86:E88 B89 B102 B105:D106 B111:E111 B108:D110 B113:E149 B112:D112">
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>LEN(TRIM(B5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="expression" dxfId="16" priority="9">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>LEN(TRIM(E91))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="expression" dxfId="15" priority="10">
+    <cfRule type="expression" dxfId="13" priority="10">
       <formula>LEN(TRIM(E92))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>LEN(TRIM(E102))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:E104">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>LEN(TRIM(B104))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="10" priority="15">
       <formula>LEN(TRIM(E105))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="11" priority="16">
+    <cfRule type="expression" dxfId="9" priority="16">
       <formula>LEN(TRIM(E106))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="expression" dxfId="10" priority="18">
+    <cfRule type="expression" dxfId="8" priority="18">
       <formula>LEN(TRIM(E108))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="expression" dxfId="9" priority="19">
+    <cfRule type="expression" dxfId="7" priority="19">
       <formula>LEN(TRIM(E109))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>LEN(TRIM(E101))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>LEN(TRIM(B101))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>LEN(TRIM(E100))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>LEN(TRIM(C85))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>LEN(TRIM(E110))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8412,40 +8202,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8453,24 +8243,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="F2" s="33"/>
       <c r="G2" s="33" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
       <c r="K2" s="33" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="L2" s="33"/>
     </row>
@@ -8479,18 +8269,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="33" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="H3" s="33"/>
       <c r="I3" s="33"/>
@@ -8503,13 +8293,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
@@ -8525,13 +8315,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
@@ -8547,13 +8337,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
@@ -8569,13 +8359,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
@@ -8591,13 +8381,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
@@ -8613,13 +8403,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
@@ -8635,13 +8425,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
@@ -8657,13 +8447,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
@@ -8679,13 +8469,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
@@ -8701,13 +8491,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
@@ -8723,13 +8513,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
@@ -8745,13 +8535,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
@@ -8767,13 +8557,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
@@ -8789,13 +8579,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
@@ -8811,13 +8601,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
@@ -8833,13 +8623,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
@@ -8855,13 +8645,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
@@ -8877,13 +8667,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
@@ -8899,13 +8689,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
@@ -8921,31 +8711,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
       <c r="J23" s="33"/>
       <c r="K23" s="33" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="L23" s="33" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8953,31 +8743,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
       <c r="K24" s="33" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="L24" s="33" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8985,31 +8775,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
       <c r="J25" s="33"/>
       <c r="K25" s="33" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="L25" s="33" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9017,28 +8807,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
       <c r="J26" s="33"/>
       <c r="K26" s="33" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="L26" s="33"/>
     </row>
@@ -9047,29 +8837,29 @@
         <v>26</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
       <c r="J27" s="33"/>
       <c r="K27" s="33" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="L27" s="33" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9077,28 +8867,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="33" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="33" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="K28" s="33" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="L28" s="33"/>
     </row>
@@ -9107,26 +8897,26 @@
         <v>28</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="33" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="H29" s="33"/>
       <c r="I29" s="33"/>
       <c r="J29" s="33" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="K29" s="33" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="L29" s="33"/>
     </row>
@@ -9135,26 +8925,26 @@
         <v>29</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
       <c r="J30" s="33" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="K30" s="33" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="L30" s="33"/>
     </row>
@@ -9163,13 +8953,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
@@ -9185,13 +8975,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
@@ -9207,23 +8997,23 @@
         <v>32</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="I33" s="33"/>
       <c r="J33" s="33"/>
@@ -9235,27 +9025,27 @@
         <v>33</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="I34" s="33"/>
       <c r="J34" s="33" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="K34" s="33"/>
       <c r="L34" s="33"/>
@@ -9265,13 +9055,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
@@ -9287,27 +9077,27 @@
         <v>35</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
       <c r="J36" s="33" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="K36" s="33"/>
       <c r="L36" s="33"/>
@@ -9317,27 +9107,27 @@
         <v>36</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
       <c r="J37" s="33" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="K37" s="33"/>
       <c r="L37" s="33"/>
@@ -9347,27 +9137,27 @@
         <v>37</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
       <c r="J38" s="33" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
@@ -9377,27 +9167,27 @@
         <v>38</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="H39" s="33"/>
       <c r="I39" s="33"/>
       <c r="J39" s="33" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
@@ -9407,25 +9197,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="H40" s="33"/>
       <c r="I40" s="33"/>
       <c r="J40" s="33" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="K40" s="33"/>
       <c r="L40" s="33"/>
@@ -9435,25 +9225,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="H41" s="33"/>
       <c r="I41" s="33"/>
       <c r="J41" s="33" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
@@ -9463,21 +9253,21 @@
         <v>41</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
       <c r="H42" s="33" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="I42" s="33"/>
       <c r="J42" s="33"/>
@@ -9489,21 +9279,21 @@
         <v>42</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="I43" s="33"/>
       <c r="J43" s="33"/>
@@ -9515,22 +9305,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="G44" s="33" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="H44" s="33"/>
       <c r="I44" s="33"/>
@@ -9543,29 +9333,29 @@
         <v>44</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="G45" s="33" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="H45" s="33" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="I45" s="33"/>
       <c r="J45" s="33" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="K45" s="33"/>
       <c r="L45" s="33"/>
@@ -9575,29 +9365,29 @@
         <v>45</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="F46" s="33" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="G46" s="33" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="H46" s="33" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="I46" s="33"/>
       <c r="J46" s="33" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="K46" s="33"/>
       <c r="L46" s="33"/>
@@ -9607,31 +9397,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="G47" s="33" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="H47" s="33" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="I47" s="33" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="J47" s="33" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="K47" s="33"/>
       <c r="L47" s="33"/>
@@ -9641,13 +9431,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
@@ -9663,13 +9453,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
@@ -9685,27 +9475,27 @@
         <v>49</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="D50" s="33"/>
       <c r="E50" s="33" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="G50" s="33" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="H50" s="33" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="I50" s="33"/>
       <c r="J50" s="33" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="K50" s="33"/>
       <c r="L50" s="33"/>
@@ -9715,27 +9505,27 @@
         <v>50</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="D51" s="33"/>
       <c r="E51" s="33" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="G51" s="33" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="H51" s="33" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="I51" s="33"/>
       <c r="J51" s="33" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="K51" s="33"/>
       <c r="L51" s="33"/>
@@ -9745,29 +9535,29 @@
         <v>51</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="G52" s="33" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="H52" s="33" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="I52" s="33"/>
       <c r="J52" s="33" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="K52" s="33"/>
       <c r="L52" s="33"/>
@@ -9777,25 +9567,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="H53" s="33" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="I53" s="33"/>
       <c r="J53" s="33"/>
@@ -9807,21 +9597,21 @@
         <v>53</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="I54" s="33"/>
       <c r="J54" s="33"/>
@@ -9833,21 +9623,21 @@
         <v>54</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="I55" s="33"/>
       <c r="J55" s="33"/>
@@ -9859,19 +9649,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="D56" s="33"/>
       <c r="E56" s="33" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
       <c r="H56" s="33" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="I56" s="33"/>
       <c r="J56" s="33"/>
@@ -9883,14 +9673,14 @@
         <v>56</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="D57" s="33"/>
       <c r="E57" s="33" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -9905,20 +9695,20 @@
         <v>57</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="D58" s="33"/>
       <c r="E58" s="33" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="G58" s="33" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="H58" s="33"/>
       <c r="I58" s="33"/>
@@ -9931,22 +9721,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="H59" s="33"/>
       <c r="I59" s="33"/>
@@ -9959,20 +9749,20 @@
         <v>59</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="D60" s="33"/>
       <c r="E60" s="33" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="F60" s="33" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G60" s="33" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="H60" s="33"/>
       <c r="I60" s="33"/>
@@ -9985,20 +9775,20 @@
         <v>60</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="D61" s="33"/>
       <c r="E61" s="33" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="F61" s="33" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="H61" s="33"/>
       <c r="I61" s="33"/>
@@ -10011,27 +9801,27 @@
         <v>61</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="D62" s="33"/>
       <c r="E62" s="33" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="F62" s="33" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="G62" s="33" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="H62" s="33" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="I62" s="33"/>
       <c r="J62" s="33" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="K62" s="33"/>
       <c r="L62" s="33"/>
@@ -10041,29 +9831,29 @@
         <v>62</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="F63" s="33" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="H63" s="33" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="I63" s="33"/>
       <c r="J63" s="33" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="K63" s="33"/>
       <c r="L63" s="33"/>
@@ -10073,29 +9863,29 @@
         <v>63</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="F64" s="33" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="G64" s="33" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="H64" s="33" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="I64" s="33"/>
       <c r="J64" s="33" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="K64" s="33"/>
       <c r="L64" s="33"/>
@@ -10105,27 +9895,27 @@
         <v>64</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="D65" s="33"/>
       <c r="E65" s="33" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="F65" s="33" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="G65" s="33" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="H65" s="33" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="I65" s="33"/>
       <c r="J65" s="33" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="K65" s="33"/>
       <c r="L65" s="33"/>
@@ -10163,7 +9953,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L65">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10217,45 +10007,45 @@
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
-      <c r="B3" s="67" t="s">
-        <v>747</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="68" t="s">
-        <v>748</v>
-      </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
+      <c r="B3" s="69" t="s">
+        <v>733</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="70" t="s">
+        <v>734</v>
+      </c>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
       <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
       <c r="B4" s="37" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="J4" s="35"/>
     </row>
@@ -10265,25 +10055,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="D5" s="42">
         <v>2</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="F5" s="42">
         <v>1</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="H5" s="42">
         <v>2</v>
       </c>
       <c r="I5" s="43" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="J5" s="35"/>
     </row>
@@ -10293,25 +10083,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="D6" s="42">
         <v>4</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="F6" s="42">
         <v>3</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="H6" s="42">
         <v>4</v>
       </c>
       <c r="I6" s="43" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="J6" s="35"/>
     </row>
@@ -10321,25 +10111,25 @@
         <v>5</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="D7" s="42">
         <v>6</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="F7" s="42">
         <v>5</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="H7" s="42">
         <v>6</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="J7" s="35"/>
     </row>
@@ -10349,25 +10139,25 @@
         <v>7</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="D8" s="42">
         <v>8</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="F8" s="42">
         <v>7</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="H8" s="42">
         <v>8</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="J8" s="35"/>
     </row>
@@ -10377,25 +10167,25 @@
         <v>9</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="D9" s="42">
         <v>10</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="F9" s="42">
         <v>9</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="H9" s="42">
         <v>10</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="J9" s="35"/>
     </row>
@@ -10405,25 +10195,25 @@
         <v>11</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="D10" s="42">
         <v>12</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="F10" s="42">
         <v>11</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="H10" s="42">
         <v>12</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="J10" s="35"/>
     </row>
@@ -10433,25 +10223,25 @@
         <v>13</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="D11" s="42">
         <v>14</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="F11" s="42">
         <v>13</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="H11" s="42">
         <v>14</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="J11" s="35"/>
     </row>
@@ -10461,25 +10251,25 @@
         <v>15</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="D12" s="42">
         <v>16</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="F12" s="42">
         <v>15</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="H12" s="42">
         <v>16</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="J12" s="35"/>
     </row>
@@ -10489,25 +10279,25 @@
         <v>17</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="D13" s="42">
         <v>18</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="F13" s="42">
         <v>17</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="H13" s="42">
         <v>18</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="J13" s="35"/>
     </row>
@@ -10517,25 +10307,25 @@
         <v>19</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="D14" s="42">
         <v>20</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="F14" s="42">
         <v>19</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="H14" s="42">
         <v>20</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="J14" s="35"/>
     </row>
@@ -10545,25 +10335,25 @@
         <v>21</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="D15" s="42">
         <v>22</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="F15" s="42">
         <v>21</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="H15" s="45">
         <v>22</v>
       </c>
       <c r="I15" s="44" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="J15" s="35"/>
     </row>
@@ -10573,25 +10363,25 @@
         <v>23</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="D16" s="42">
         <v>24</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="F16" s="42">
         <v>23</v>
       </c>
       <c r="G16" s="44" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="H16" s="45">
         <v>24</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="J16" s="35"/>
     </row>
@@ -10601,25 +10391,25 @@
         <v>25</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="D17" s="46">
         <v>26</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="F17" s="46">
         <v>25</v>
       </c>
       <c r="G17" s="47" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="H17" s="46">
         <v>26</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="J17" s="35"/>
     </row>
@@ -10629,7 +10419,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="D18" s="46">
         <v>28</v>
@@ -10639,7 +10429,7 @@
         <v>27</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="H18" s="46">
         <v>28</v>
